--- a/data/trans_dic/P69$dolorCabeza-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorCabeza-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3360352336471586</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3281633926473819</v>
+        <v>0.3281633926473818</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6409431254599733</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2687264002002365</v>
+        <v>0.2599405861510249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3265232245182096</v>
+        <v>0.3281629537702526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.205012481927778</v>
+        <v>0.2170376434475256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1693144964951052</v>
+        <v>0.1540087780640898</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4228598952938355</v>
+        <v>0.4317611400523504</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4586080851846449</v>
+        <v>0.474887170554365</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3367401625081433</v>
+        <v>0.3489176010257838</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2614131504190929</v>
+        <v>0.259944461156874</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3851514662760144</v>
+        <v>0.3768500318602797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4405972085170235</v>
+        <v>0.4387126210240815</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3134045580076397</v>
+        <v>0.3008178053116242</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.227476730111472</v>
+        <v>0.2394698840381285</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5974248110752335</v>
+        <v>0.5804465396339836</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6507760096252373</v>
+        <v>0.6419387478965287</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4686243868818311</v>
+        <v>0.4822732201393868</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5520011513694308</v>
+        <v>0.56211662845638</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8102250468040106</v>
+        <v>0.8089035704507378</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8263761930392429</v>
+        <v>0.8366155543088182</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6591449597459197</v>
+        <v>0.6566697930332566</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6212548522884307</v>
+        <v>0.6339818170988885</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6408293542604591</v>
+        <v>0.6304596198256772</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6891298481526205</v>
+        <v>0.6918976408414957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5219836694555162</v>
+        <v>0.5067547572994888</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5259401465213823</v>
+        <v>0.5002816956412286</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4385168425044995</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5357469701921416</v>
+        <v>0.5357469701921415</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2459319331990121</v>
@@ -833,7 +833,7 @@
         <v>0.3630446179087497</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3814154222623097</v>
+        <v>0.3814154222623096</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1340616076623685</v>
+        <v>0.1340372448105226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1909942699960759</v>
+        <v>0.1836326217117172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2247252497745455</v>
+        <v>0.2346459735576192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1032797124041909</v>
+        <v>0.09294351029718437</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1202053464231536</v>
+        <v>0.1185437495942147</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08817810805905749</v>
+        <v>0.08718166740105762</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2874660123952714</v>
+        <v>0.2820083539208694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4085273171053046</v>
+        <v>0.4009201384561248</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1627070444038402</v>
+        <v>0.1615416041932778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1805400943804509</v>
+        <v>0.1779236189426595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2851769734604401</v>
+        <v>0.2719596512603688</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2794762006429757</v>
+        <v>0.286789264638138</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3650346469518334</v>
+        <v>0.3666691238303946</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4416242630765094</v>
+        <v>0.4266842759380955</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4409467468467445</v>
+        <v>0.4369824258852256</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4439700883754605</v>
+        <v>0.4086988024927604</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4191598718434666</v>
+        <v>0.4252130794452788</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3791866607908103</v>
+        <v>0.3905159213664379</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5920710920600254</v>
+        <v>0.5871355496691028</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6602620983528394</v>
+        <v>0.6532306090697201</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3434030450901231</v>
+        <v>0.3364165840973185</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.351425290167074</v>
+        <v>0.3658821262622722</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4546505217854501</v>
+        <v>0.4514978285288195</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.496222418396255</v>
+        <v>0.4993567710872326</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1442422467876113</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1971026858219617</v>
+        <v>0.1971026858219618</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2285588489916919</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1258801406020443</v>
+        <v>0.1287677379369491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1186897152471422</v>
+        <v>0.1173151243106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03818654063999885</v>
+        <v>0.03727650740380702</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04628248940328718</v>
+        <v>0.04594652048724404</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05503178001883552</v>
+        <v>0.05478489102487802</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1149445069629175</v>
+        <v>0.1189132902702496</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.124742127824095</v>
+        <v>0.1329745887217078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1412681696625695</v>
+        <v>0.1356616669686785</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0480756886496933</v>
+        <v>0.05134949337803721</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07190511645774104</v>
+        <v>0.06693291896008823</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4300781956500491</v>
+        <v>0.4424994727142288</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4785877035725516</v>
+        <v>0.4770212739663237</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3111336403630416</v>
+        <v>0.3397924514000319</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1295906008838129</v>
+        <v>0.1217600867847301</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4113531827010902</v>
+        <v>0.369809894201602</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4689735787638673</v>
+        <v>0.472232659143877</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3845685687999358</v>
+        <v>0.4330783328011703</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3130862076011909</v>
+        <v>0.3064156716664187</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3623966054194177</v>
+        <v>0.3579164013225256</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4012384003334572</v>
+        <v>0.3983224367832742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2688512754241565</v>
+        <v>0.2484968714383294</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1827841977627759</v>
+        <v>0.1745482391796459</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.5361861539679587</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4306246523984799</v>
+        <v>0.43062465239848</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2698900220513398</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1456117288585612</v>
+        <v>0.1426720240107847</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08066866736502584</v>
+        <v>0.08008784414613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2428862546082707</v>
+        <v>0.2329743486458571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3007508101534007</v>
+        <v>0.3010002587620976</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1383891044062797</v>
+        <v>0.1478125048372696</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3179109830031206</v>
+        <v>0.3056111680992284</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3562451157638697</v>
+        <v>0.354882581700794</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3007537536658211</v>
+        <v>0.3078105950542329</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1840498200730241</v>
+        <v>0.1766918007634656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2062181414562326</v>
+        <v>0.2027469017571117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3359596100514473</v>
+        <v>0.3355832252701433</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3533081631347186</v>
+        <v>0.3490427166617897</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3979677548809695</v>
+        <v>0.3754366247190117</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3528538212704249</v>
+        <v>0.3291407948738927</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5970946903648209</v>
+        <v>0.5943623169210213</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6723351405346556</v>
+        <v>0.6720041769024533</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5239969066036086</v>
+        <v>0.5558733918495173</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6998688991147489</v>
+        <v>0.6711193848868663</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7186004991056175</v>
+        <v>0.7221137938300999</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5536578630119222</v>
+        <v>0.5885524722586792</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3766828098195664</v>
+        <v>0.386528479888342</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.430478511568594</v>
+        <v>0.4327007985629222</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5932871916598892</v>
+        <v>0.5934371010901941</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5908393945651743</v>
+        <v>0.5842816775498245</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4336289233763641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1304081930625624</v>
+        <v>0.1304081930625623</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.564096839145897</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1101758746150178</v>
+        <v>0.08027751716477022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05787679678292619</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.171154204354825</v>
+        <v>0.190181122696419</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0336271425570021</v>
+        <v>0.03334243333021778</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0.1411797864492354</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2856734004984925</v>
+        <v>0.2963065638687016</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1869886022111562</v>
+        <v>0.1939864891710468</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02947295077201003</v>
+        <v>0.03097236731531638</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1589674303171128</v>
+        <v>0.1730132453419971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2202047317886654</v>
+        <v>0.2086559779567338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2772663786043469</v>
+        <v>0.2926675229851098</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05179578000252062</v>
+        <v>0.05592080874879507</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4394674848032991</v>
+        <v>0.4228165928323198</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4342139347607758</v>
+        <v>0.43511624894573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6931021021247473</v>
+        <v>0.7413448342900903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2903340538873682</v>
+        <v>0.3241003320427642</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.856136389252438</v>
+        <v>0.8558262463458065</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9126522763785302</v>
+        <v>0.9113032219468814</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3307372400206018</v>
+        <v>0.3244829363336484</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5025173034167435</v>
+        <v>0.491589182821243</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6071822926839107</v>
+        <v>0.6152339460103751</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7393513597311132</v>
+        <v>0.750113055455442</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2384656280739312</v>
+        <v>0.233694006503267</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1326608314839021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1864256739718032</v>
+        <v>0.1864256739718033</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.650809635719402</v>
@@ -1377,7 +1377,7 @@
         <v>0.214656278092744</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2096162441377418</v>
+        <v>0.2096162441377419</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3187014262386808</v>
+        <v>0.3105515791513744</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1136857717485922</v>
+        <v>0.1219909478197472</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03932839307791884</v>
+        <v>0.003387778621188819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08117918593302874</v>
+        <v>0.08038913993066299</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3598903094361732</v>
+        <v>0.369014501010321</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06131800054786608</v>
+        <v>0.06259419002970153</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1380222994059461</v>
+        <v>0.1395122294773512</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1318570034191792</v>
+        <v>0.1343902622434011</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.387520877711617</v>
+        <v>0.3804835680221961</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1318367175881366</v>
+        <v>0.1304811750429501</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08423237440640416</v>
+        <v>0.07037222595560634</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1316534484716601</v>
+        <v>0.1311785409216855</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6343291191184764</v>
+        <v>0.6340863219363594</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3887730543782862</v>
+        <v>0.3832894029519877</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3179497834620604</v>
+        <v>0.3155412241475652</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.339843066177859</v>
+        <v>0.3225061587290111</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8598599525606287</v>
+        <v>0.8637026045813868</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5125731677942935</v>
+        <v>0.5071402374332642</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8709162023634809</v>
+        <v>0.8714766081369313</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3602918862142738</v>
+        <v>0.3728850122554224</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6423564586187187</v>
+        <v>0.6555817422779994</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3600299982913999</v>
+        <v>0.358585186186575</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4096000219791993</v>
+        <v>0.3845120142018602</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3092787321324127</v>
+        <v>0.3054141534418892</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.1678260304236528</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2703934227291455</v>
+        <v>0.2703934227291456</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.396242655679141</v>
@@ -1501,7 +1501,7 @@
         <v>0.3758332796734453</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3884455421199982</v>
+        <v>0.3884455421199983</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3458575072427824</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2249091838490488</v>
+        <v>0.222780666787274</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1643525763071492</v>
+        <v>0.1693349219065722</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0929287633407766</v>
+        <v>0.09127772635087464</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1726146270558677</v>
+        <v>0.1708011902345626</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2577445492094413</v>
+        <v>0.2586748666422522</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2919182065412981</v>
+        <v>0.2793998504926413</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2449433582067739</v>
+        <v>0.2530864519728935</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2972874225756205</v>
+        <v>0.2997578634156658</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2651901120189757</v>
+        <v>0.2543256998842741</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2521997376654868</v>
+        <v>0.2544796460228405</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1843796229120672</v>
+        <v>0.1829657472765596</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2627655556416083</v>
+        <v>0.2611604560752701</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4379445523009122</v>
+        <v>0.4294410149605601</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4177723701473272</v>
+        <v>0.4285567386851519</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2687157286320201</v>
+        <v>0.2693534297015919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3890234889402004</v>
+        <v>0.3952905034097587</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.539436875092501</v>
+        <v>0.540150466778555</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5829404098479022</v>
+        <v>0.5915230064937911</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5191980080080149</v>
+        <v>0.5197279623172472</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4891584023688451</v>
+        <v>0.4855445096572843</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.439900993813241</v>
+        <v>0.4375742841681647</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4456429742104633</v>
+        <v>0.4486485105808355</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3385968178197999</v>
+        <v>0.3387659832812185</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4040923577613834</v>
+        <v>0.4070896467286614</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.2710574656881364</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.2593740892422464</v>
+        <v>0.2593740892422463</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.4327576608162377</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1870718949033625</v>
+        <v>0.1796978397295374</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04565562856935677</v>
+        <v>0.06257627709584905</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1348637809650346</v>
+        <v>0.1496723437409645</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.145164645211732</v>
+        <v>0.1561822586002258</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3129969264105275</v>
+        <v>0.3016121615766921</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1756632035398066</v>
+        <v>0.1789734660595708</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04652089263013267</v>
+        <v>0.04802385073520294</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1219844528358841</v>
+        <v>0.1176300744903761</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2451856461842047</v>
+        <v>0.2446704905877573</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1309776257202036</v>
+        <v>0.1232675554650892</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1431897676197753</v>
+        <v>0.1464970361108456</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1656398401755421</v>
+        <v>0.1619834613569764</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3523163604924736</v>
+        <v>0.353847639831775</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2477897287047506</v>
+        <v>0.2529799515359146</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.427156911830147</v>
+        <v>0.4313085304559059</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3736860865349189</v>
+        <v>0.3981101871592517</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5837831383161584</v>
+        <v>0.5759423326025543</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5739249583263583</v>
+        <v>0.5623993040404274</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4083141678441855</v>
+        <v>0.3913852556122335</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3330383945069789</v>
+        <v>0.32322368722954</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.393003058236876</v>
+        <v>0.3903155450937615</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3361691404506912</v>
+        <v>0.3351074516944486</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3734649211325768</v>
+        <v>0.3731958108828992</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3284912023108266</v>
+        <v>0.3134877666161752</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.3271283062586951</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.293015993480899</v>
+        <v>0.2930159934808991</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2149996241789227</v>
+        <v>0.2138618780434373</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2273823669044837</v>
+        <v>0.225529742196607</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2027387465668608</v>
+        <v>0.2041539082889035</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3423844655941635</v>
+        <v>0.3411592332383934</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2915577825683068</v>
+        <v>0.2916600738202063</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2815235292444955</v>
+        <v>0.2723327151114282</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2871105939474294</v>
+        <v>0.2846950736345913</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.255794784493149</v>
+        <v>0.2623504242230487</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3163144554004514</v>
+        <v>0.3126409501419791</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3251467161930136</v>
+        <v>0.3249829150990406</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3125912677025443</v>
+        <v>0.3086932578046629</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.484826962223694</v>
+        <v>0.4815307282467947</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3837390585694817</v>
+        <v>0.3800073746053139</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.362785042852672</v>
+        <v>0.3611093364895259</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3685971359134208</v>
+        <v>0.3687419514560318</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3265617220415276</v>
+        <v>0.3294420209424515</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11513</v>
+        <v>11137</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12896</v>
+        <v>12960</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11624</v>
+        <v>12305</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4194</v>
+        <v>3815</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12102</v>
+        <v>12357</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13369</v>
+        <v>13844</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13767</v>
+        <v>14265</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4236</v>
+        <v>4212</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>27524</v>
+        <v>26931</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>30245</v>
+        <v>30116</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30582</v>
+        <v>29354</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9321</v>
+        <v>9813</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25596</v>
+        <v>24869</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25702</v>
+        <v>25353</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26570</v>
+        <v>27343</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13674</v>
+        <v>13924</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23188</v>
+        <v>23150</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24091</v>
+        <v>24389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26948</v>
+        <v>26847</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10067</v>
+        <v>10274</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>45796</v>
+        <v>45055</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>47306</v>
+        <v>47496</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>50936</v>
+        <v>49450</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21551</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9706</v>
+        <v>9704</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10808</v>
+        <v>10392</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18604</v>
+        <v>19425</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4958</v>
+        <v>4462</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3929</v>
+        <v>3875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3026</v>
+        <v>2992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12274</v>
+        <v>12041</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>18757</v>
+        <v>18408</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17098</v>
+        <v>16975</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16412</v>
+        <v>16174</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35785</v>
+        <v>34126</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26249</v>
+        <v>26936</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26427</v>
+        <v>26546</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24992</v>
+        <v>24146</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36504</v>
+        <v>36176</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21314</v>
+        <v>19620</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13701</v>
+        <v>13899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13012</v>
+        <v>13401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25280</v>
+        <v>25069</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>30315</v>
+        <v>29992</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36086</v>
+        <v>35352</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>31946</v>
+        <v>33261</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>57051</v>
+        <v>56655</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>46606</v>
+        <v>46900</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4609</v>
+        <v>4715</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2881</v>
+        <v>2848</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5267</v>
+        <v>5449</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7277</v>
+        <v>7758</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5963</v>
+        <v>5727</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1623</v>
+        <v>1733</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6814</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15747</v>
+        <v>16202</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11618</v>
+        <v>11580</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6613</v>
+        <v>7222</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6342</v>
+        <v>5959</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8936</v>
+        <v>8034</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8411</v>
+        <v>8469</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4807</v>
+        <v>5414</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14347</v>
+        <v>14041</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21142</v>
+        <v>20880</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16937</v>
+        <v>16814</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9075</v>
+        <v>8388</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>17322</v>
+        <v>16542</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8493</v>
+        <v>8321</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3619</v>
+        <v>3593</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7885</v>
+        <v>7564</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16290</v>
+        <v>16304</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3142</v>
+        <v>3356</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9390</v>
+        <v>9026</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10664</v>
+        <v>10623</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15896</v>
+        <v>16269</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14913</v>
+        <v>14317</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15342</v>
+        <v>15083</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20964</v>
+        <v>20940</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>37811</v>
+        <v>37354</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23211</v>
+        <v>21897</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15829</v>
+        <v>14765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19385</v>
+        <v>19296</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36418</v>
+        <v>36400</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11898</v>
+        <v>12622</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20671</v>
+        <v>19822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21511</v>
+        <v>21616</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29262</v>
+        <v>31107</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>30522</v>
+        <v>31320</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>32025</v>
+        <v>32191</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>37021</v>
+        <v>37030</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>63231</v>
+        <v>62529</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2529</v>
+        <v>1843</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2545</v>
+        <v>2828</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3331</v>
+        <v>3455</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1079</v>
+        <v>1119</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4757</v>
+        <v>5177</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6128</v>
+        <v>5807</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5723</v>
+        <v>6041</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1806</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10088</v>
+        <v>9705</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7021</v>
+        <v>7035</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10306</v>
+        <v>11024</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6287</v>
+        <v>7018</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10642</v>
+        <v>10627</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>5771</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4369</v>
+        <v>4287</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15038</v>
+        <v>14711</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>16898</v>
+        <v>17122</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>15261</v>
+        <v>15483</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>8314</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13325</v>
+        <v>12984</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4932</v>
+        <v>5292</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>882</v>
+        <v>76</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2668</v>
+        <v>2642</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5072</v>
+        <v>5201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3972</v>
+        <v>4048</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>21664</v>
+        <v>21270</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>7721</v>
+        <v>7641</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2515</v>
+        <v>2101</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>8293</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>26521</v>
+        <v>26511</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16865</v>
+        <v>16627</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7133</v>
+        <v>7079</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11170</v>
+        <v>10600</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12119</v>
+        <v>12173</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7783</v>
+        <v>7700</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6468</v>
+        <v>6472</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10853</v>
+        <v>11233</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>35910</v>
+        <v>36649</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>21085</v>
+        <v>21000</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>12231</v>
+        <v>11482</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>19482</v>
+        <v>19239</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19708</v>
+        <v>19522</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8946</v>
+        <v>9217</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7280</v>
+        <v>7151</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>14668</v>
+        <v>14514</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11221</v>
+        <v>11261</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>13539</v>
+        <v>12959</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>13639</v>
+        <v>14092</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>23996</v>
+        <v>24196</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>34783</v>
+        <v>33358</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>25424</v>
+        <v>25654</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>24711</v>
+        <v>24522</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>43539</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>38376</v>
+        <v>37631</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>22739</v>
+        <v>23326</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>21052</v>
+        <v>21102</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>33058</v>
+        <v>33591</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23484</v>
+        <v>23515</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27037</v>
+        <v>27435</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>28910</v>
+        <v>28939</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>39483</v>
+        <v>39192</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>57698</v>
+        <v>57393</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>44925</v>
+        <v>45228</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>45380</v>
+        <v>45403</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>66956</v>
+        <v>67452</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>20375</v>
+        <v>19572</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2107</v>
+        <v>2888</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5297</v>
+        <v>5878</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9574</v>
+        <v>10301</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>15583</v>
+        <v>15016</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>5388</v>
+        <v>5489</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>996</v>
+        <v>1028</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7012</v>
+        <v>6762</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>38911</v>
+        <v>38829</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>10062</v>
+        <v>9469</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>8688</v>
+        <v>8889</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>20446</v>
+        <v>19995</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>38373</v>
+        <v>38539</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11435</v>
+        <v>11675</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>16776</v>
+        <v>16939</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>24647</v>
+        <v>26258</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>29064</v>
+        <v>28674</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>17603</v>
+        <v>17250</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>8738</v>
+        <v>8376</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>19144</v>
+        <v>18580</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>62370</v>
+        <v>61943</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>25825</v>
+        <v>25743</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>22660</v>
+        <v>22643</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>40549</v>
+        <v>38697</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>69949</v>
+        <v>69579</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>79157</v>
+        <v>78512</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>77313</v>
+        <v>77852</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>73556</v>
+        <v>73293</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>99810</v>
+        <v>99845</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>152074</v>
+        <v>147109</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>162051</v>
+        <v>160687</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>185113</v>
+        <v>189857</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>102912</v>
+        <v>101717</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>113191</v>
+        <v>113134</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>119204</v>
+        <v>117718</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>104158</v>
+        <v>103450</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>131367</v>
+        <v>130090</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>195970</v>
+        <v>195065</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>208043</v>
+        <v>208125</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>236325</v>
+        <v>238409</v>
       </c>
     </row>
     <row r="40">
